--- a/Code/Results/Cases/Case_4_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.998605401526504</v>
+        <v>0.5444614721754988</v>
       </c>
       <c r="C2">
-        <v>0.1369443398320627</v>
+        <v>0.2199998318697993</v>
       </c>
       <c r="D2">
-        <v>0.1957233257353437</v>
+        <v>0.07825835179046692</v>
       </c>
       <c r="E2">
-        <v>0.06029996135677251</v>
+        <v>0.1354707382770037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4539270855695037</v>
+        <v>0.7963246162988327</v>
       </c>
       <c r="H2">
-        <v>0.3725434142824753</v>
+        <v>0.8801369325400543</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8323958722166083</v>
+        <v>0.2744477690766303</v>
       </c>
       <c r="L2">
-        <v>0.1485140998214192</v>
+        <v>0.1902934636307378</v>
       </c>
       <c r="M2">
-        <v>0.212034947440717</v>
+        <v>0.1568398313437918</v>
       </c>
       <c r="N2">
-        <v>0.9172312437409422</v>
+        <v>1.929792603485881</v>
       </c>
       <c r="O2">
-        <v>1.68967509155317</v>
+        <v>3.369760866746361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8692231927776106</v>
+        <v>0.5088688634830305</v>
       </c>
       <c r="C3">
-        <v>0.1361298084742515</v>
+        <v>0.2197934695591854</v>
       </c>
       <c r="D3">
-        <v>0.1699463325602721</v>
+        <v>0.07103394885483283</v>
       </c>
       <c r="E3">
-        <v>0.05937822378142066</v>
+        <v>0.1359704241426751</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4392794281017274</v>
+        <v>0.7980827652367921</v>
       </c>
       <c r="H3">
-        <v>0.3713564947834627</v>
+        <v>0.8846671997178461</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7250236418375522</v>
+        <v>0.2422383370241619</v>
       </c>
       <c r="L3">
-        <v>0.1348290526626315</v>
+        <v>0.1876728200020494</v>
       </c>
       <c r="M3">
-        <v>0.1859543752593851</v>
+        <v>0.1501696946828055</v>
       </c>
       <c r="N3">
-        <v>0.9592534936160142</v>
+        <v>1.948076651629993</v>
       </c>
       <c r="O3">
-        <v>1.655773882326443</v>
+        <v>3.382704102399714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7900813469220509</v>
+        <v>0.4871974121235212</v>
       </c>
       <c r="C4">
-        <v>0.1356562854997598</v>
+        <v>0.2196798228123953</v>
       </c>
       <c r="D4">
-        <v>0.1542423036916318</v>
+        <v>0.0666308899424024</v>
       </c>
       <c r="E4">
-        <v>0.05888851061880551</v>
+        <v>0.1363276894668459</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4311337540435716</v>
+        <v>0.7995943919714463</v>
       </c>
       <c r="H4">
-        <v>0.3711559654207477</v>
+        <v>0.8877772601946958</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6591390027339514</v>
+        <v>0.2224574114253528</v>
       </c>
       <c r="L4">
-        <v>0.1265726831132241</v>
+        <v>0.1861536171497136</v>
       </c>
       <c r="M4">
-        <v>0.1700491761046798</v>
+        <v>0.1461408468812451</v>
       </c>
       <c r="N4">
-        <v>0.9861437238989748</v>
+        <v>1.959877133482028</v>
       </c>
       <c r="O4">
-        <v>1.637852323553318</v>
+        <v>3.392245412146607</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7578941997863069</v>
+        <v>0.4784126276987877</v>
       </c>
       <c r="C5">
-        <v>0.135469929922202</v>
+        <v>0.2196368180707431</v>
       </c>
       <c r="D5">
-        <v>0.1478701403533762</v>
+        <v>0.06484487948836204</v>
       </c>
       <c r="E5">
-        <v>0.05870756463662197</v>
+        <v>0.1364859881171157</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4280179329135123</v>
+        <v>0.8003190875331541</v>
       </c>
       <c r="H5">
-        <v>0.3712028290696452</v>
+        <v>0.8891273291805106</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6322928577584008</v>
+        <v>0.2143959096138985</v>
       </c>
       <c r="L5">
-        <v>0.1232427562393426</v>
+        <v>0.1855572014470255</v>
       </c>
       <c r="M5">
-        <v>0.1635921939548517</v>
+        <v>0.1445159388752764</v>
       </c>
       <c r="N5">
-        <v>0.9973697523656151</v>
+        <v>1.964830296744615</v>
       </c>
       <c r="O5">
-        <v>1.631247490046519</v>
+        <v>3.396534706336254</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7525530773037303</v>
+        <v>0.4769567476513146</v>
       </c>
       <c r="C6">
-        <v>0.1354393826575304</v>
+        <v>0.2196298775952386</v>
       </c>
       <c r="D6">
-        <v>0.1468135971502846</v>
+        <v>0.06454881445300487</v>
       </c>
       <c r="E6">
-        <v>0.05867862728001327</v>
+        <v>0.1365130418098364</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4275125767982075</v>
+        <v>0.8004459886859294</v>
       </c>
       <c r="H6">
-        <v>0.3712182560932504</v>
+        <v>0.8893565045911629</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6278349862914325</v>
+        <v>0.2130572793357572</v>
       </c>
       <c r="L6">
-        <v>0.1226918529983507</v>
+        <v>0.1854595384529603</v>
       </c>
       <c r="M6">
-        <v>0.1625214201973826</v>
+        <v>0.1442471472561628</v>
       </c>
       <c r="N6">
-        <v>0.9992498545793964</v>
+        <v>1.965661486411041</v>
       </c>
       <c r="O6">
-        <v>1.630192107568604</v>
+        <v>3.397271176098883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.789647016237069</v>
+        <v>0.4870787483405934</v>
       </c>
       <c r="C7">
-        <v>0.1356537455854756</v>
+        <v>0.2196792294127334</v>
       </c>
       <c r="D7">
-        <v>0.1541562603639619</v>
+        <v>0.06660676964121137</v>
       </c>
       <c r="E7">
-        <v>0.05888599565802721</v>
+        <v>0.136329772845011</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4310909210197664</v>
+        <v>0.7996037253177875</v>
       </c>
       <c r="H7">
-        <v>0.3711560822954638</v>
+        <v>0.8877951327383755</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6587769472099438</v>
+        <v>0.2223486930916607</v>
       </c>
       <c r="L7">
-        <v>0.1265276372250383</v>
+        <v>0.1861454817883086</v>
       </c>
       <c r="M7">
-        <v>0.1699619992436432</v>
+        <v>0.1461188642942837</v>
       </c>
       <c r="N7">
-        <v>0.9862940440247021</v>
+        <v>1.959943348976077</v>
       </c>
       <c r="O7">
-        <v>1.637760458705685</v>
+        <v>3.392301634524287</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9539251605559116</v>
+        <v>0.5321516017701242</v>
       </c>
       <c r="C8">
-        <v>0.1366579170517213</v>
+        <v>0.2199259810867886</v>
       </c>
       <c r="D8">
-        <v>0.1868076295236278</v>
+        <v>0.07576059887624353</v>
       </c>
       <c r="E8">
-        <v>0.05996598201307357</v>
+        <v>0.1356325711650452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4486946195659414</v>
+        <v>0.7968411604516348</v>
       </c>
       <c r="H8">
-        <v>0.3720219077475804</v>
+        <v>0.8816308570558817</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7953599967826221</v>
+        <v>0.2633430856475911</v>
       </c>
       <c r="L8">
-        <v>0.1437637840233776</v>
+        <v>0.1893712512706145</v>
       </c>
       <c r="M8">
-        <v>0.2030181764850347</v>
+        <v>0.1545262074526015</v>
       </c>
       <c r="N8">
-        <v>0.9314911504099408</v>
+        <v>1.935977830978549</v>
       </c>
       <c r="O8">
-        <v>1.677367231362553</v>
+        <v>3.373893000694778</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279011010724503</v>
+        <v>0.6219659941642988</v>
       </c>
       <c r="C9">
-        <v>0.1388423294915455</v>
+        <v>0.220512533938404</v>
       </c>
       <c r="D9">
-        <v>0.2519875077766045</v>
+        <v>0.09397048236958483</v>
       </c>
       <c r="E9">
-        <v>0.06271504644537806</v>
+        <v>0.1346647750037953</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4904026806673727</v>
+        <v>0.7948516560993824</v>
       </c>
       <c r="H9">
-        <v>0.3781131732821308</v>
+        <v>0.8721447133119824</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.063942023364774</v>
+        <v>0.3436839891006684</v>
       </c>
       <c r="L9">
-        <v>0.1788295005937428</v>
+        <v>0.1964076002063777</v>
       </c>
       <c r="M9">
-        <v>0.2688342816179343</v>
+        <v>0.1715373444769277</v>
       </c>
       <c r="N9">
-        <v>0.8329224500323953</v>
+        <v>1.893533753772555</v>
       </c>
       <c r="O9">
-        <v>1.779393382330682</v>
+        <v>3.350432183885744</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.520489025211049</v>
+        <v>0.6887999268325871</v>
       </c>
       <c r="C10">
-        <v>0.1405850112118685</v>
+        <v>0.2210048650057246</v>
       </c>
       <c r="D10">
-        <v>0.3008338917019984</v>
+        <v>0.1075078553106152</v>
       </c>
       <c r="E10">
-        <v>0.0651581185712562</v>
+        <v>0.1341960572877277</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5261007088817422</v>
+        <v>0.7954798751518268</v>
       </c>
       <c r="H10">
-        <v>0.3855635228903509</v>
+        <v>0.8667562024485136</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.262339669008924</v>
+        <v>0.4026652791149559</v>
       </c>
       <c r="L10">
-        <v>0.2055195019624705</v>
+        <v>0.2020077526613875</v>
       </c>
       <c r="M10">
-        <v>0.3179943856550054</v>
+        <v>0.1843505524163618</v>
       </c>
       <c r="N10">
-        <v>0.7663102131045036</v>
+        <v>1.86512116343078</v>
       </c>
       <c r="O10">
-        <v>1.871251250927401</v>
+        <v>3.340890019656854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.631117599879502</v>
+        <v>0.7193840373687408</v>
       </c>
       <c r="C11">
-        <v>0.1414093646402677</v>
+        <v>0.2212419214583932</v>
       </c>
       <c r="D11">
-        <v>0.3233240642309454</v>
+        <v>0.113700970676831</v>
       </c>
       <c r="E11">
-        <v>0.06637046809470348</v>
+        <v>0.134035201398973</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5435971142434255</v>
+        <v>0.7962195941144898</v>
       </c>
       <c r="H11">
-        <v>0.3896689445712695</v>
+        <v>0.86464703670174</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.352975598222827</v>
+        <v>0.4294846632501219</v>
       </c>
       <c r="L11">
-        <v>0.2178994961995642</v>
+        <v>0.2046483753004793</v>
       </c>
       <c r="M11">
-        <v>0.3405806890548533</v>
+        <v>0.1902471572144222</v>
       </c>
       <c r="N11">
-        <v>0.7373569091979348</v>
+        <v>1.852796378929714</v>
       </c>
       <c r="O11">
-        <v>1.917192792542892</v>
+        <v>3.33821791053029</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.673139217618683</v>
+        <v>0.7309909493312432</v>
       </c>
       <c r="C12">
-        <v>0.1417262164442477</v>
+        <v>0.2213335492330089</v>
       </c>
       <c r="D12">
-        <v>0.3318845557188581</v>
+        <v>0.1160511408808134</v>
       </c>
       <c r="E12">
-        <v>0.06684486473000106</v>
+        <v>0.1339817984863814</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5504174038799903</v>
+        <v>0.7965649702461661</v>
       </c>
       <c r="H12">
-        <v>0.3913327816579795</v>
+        <v>0.8638974520476097</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.387365006356589</v>
+        <v>0.4396384327006331</v>
       </c>
       <c r="L12">
-        <v>0.2226249861300289</v>
+        <v>0.2056616354539216</v>
       </c>
       <c r="M12">
-        <v>0.3491697262625024</v>
+        <v>0.1924896932610096</v>
       </c>
       <c r="N12">
-        <v>0.7265951481491468</v>
+        <v>1.848215589612973</v>
       </c>
       <c r="O12">
-        <v>1.935230030297788</v>
+        <v>3.337445795022887</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.664083091782658</v>
+        <v>0.7284900751683097</v>
       </c>
       <c r="C13">
-        <v>0.1416577658551432</v>
+        <v>0.221313733211197</v>
       </c>
       <c r="D13">
-        <v>0.3300388602416291</v>
+        <v>0.1155447693007972</v>
       </c>
       <c r="E13">
-        <v>0.06674200119381624</v>
+        <v>0.1339929660879982</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5489396370104345</v>
+        <v>0.7964876850826812</v>
       </c>
       <c r="H13">
-        <v>0.3909694845062006</v>
+        <v>0.8640567056105368</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.379955421804908</v>
+        <v>0.437451740261821</v>
       </c>
       <c r="L13">
-        <v>0.2216055492625202</v>
+        <v>0.2054428207680701</v>
       </c>
       <c r="M13">
-        <v>0.3473182514441646</v>
+        <v>0.1920062972540535</v>
       </c>
       <c r="N13">
-        <v>0.7289037549457502</v>
+        <v>1.849198304181971</v>
       </c>
       <c r="O13">
-        <v>1.931316207124894</v>
+        <v>3.337601423942971</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.634572057552049</v>
+        <v>0.7203384402556878</v>
       </c>
       <c r="C14">
-        <v>0.141435337424852</v>
+        <v>0.2212494225933384</v>
       </c>
       <c r="D14">
-        <v>0.3240274294259251</v>
+        <v>0.113894221219752</v>
       </c>
       <c r="E14">
-        <v>0.06640918557451414</v>
+        <v>0.1340306575203343</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5441542364935259</v>
+        <v>0.79624670058638</v>
       </c>
       <c r="H14">
-        <v>0.3898036038413437</v>
+        <v>0.8645843841402723</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.35580340791563</v>
+        <v>0.4303200658887931</v>
       </c>
       <c r="L14">
-        <v>0.2182874957131702</v>
+        <v>0.204731470409925</v>
       </c>
       <c r="M14">
-        <v>0.3412865670247456</v>
+        <v>0.1904314599642021</v>
       </c>
       <c r="N14">
-        <v>0.7364674306131551</v>
+        <v>1.852417784122765</v>
       </c>
       <c r="O14">
-        <v>1.918663642533318</v>
+        <v>3.338149584228916</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.616513016400148</v>
+        <v>0.7153486132965554</v>
       </c>
       <c r="C15">
-        <v>0.1412997084626539</v>
+        <v>0.2212102719808229</v>
       </c>
       <c r="D15">
-        <v>0.3203511370548426</v>
+        <v>0.1128838589498287</v>
       </c>
       <c r="E15">
-        <v>0.06620734378508075</v>
+        <v>0.1340547219911699</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5412488374691264</v>
+        <v>0.7961075890193996</v>
       </c>
       <c r="H15">
-        <v>0.3891038809499747</v>
+        <v>0.8649139956983305</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.341018780192968</v>
+        <v>0.425951414795918</v>
       </c>
       <c r="L15">
-        <v>0.2162600666254093</v>
+        <v>0.204297479471478</v>
       </c>
       <c r="M15">
-        <v>0.3375968101902487</v>
+        <v>0.1894680755230453</v>
       </c>
       <c r="N15">
-        <v>0.7411269899317574</v>
+        <v>1.85440105321503</v>
       </c>
       <c r="O15">
-        <v>1.910998264978673</v>
+        <v>3.338516565412874</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.513276287145629</v>
+        <v>0.6868047696877113</v>
       </c>
       <c r="C16">
-        <v>0.1405317855588066</v>
+        <v>0.220989634289765</v>
       </c>
       <c r="D16">
-        <v>0.29936996777856</v>
+        <v>0.1071038189327425</v>
       </c>
       <c r="E16">
-        <v>0.06508098679495156</v>
+        <v>0.1342076215891819</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.524983751943239</v>
+        <v>0.7954406658998892</v>
       </c>
       <c r="H16">
-        <v>0.3853101580170915</v>
+        <v>0.8669009181797662</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.256425158321861</v>
+        <v>0.4009122955284568</v>
       </c>
       <c r="L16">
-        <v>0.2047155056251881</v>
+        <v>0.2018370487353565</v>
       </c>
       <c r="M16">
-        <v>0.3165231442314393</v>
+        <v>0.1839665487428661</v>
       </c>
       <c r="N16">
-        <v>0.7682302174301139</v>
+        <v>1.86593869759607</v>
       </c>
       <c r="O16">
-        <v>1.868336059203074</v>
+        <v>3.341098209217279</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.450155132578686</v>
+        <v>0.6693399421750428</v>
       </c>
       <c r="C17">
-        <v>0.1400688806160773</v>
+        <v>0.2208576170930172</v>
       </c>
       <c r="D17">
-        <v>0.2865713564492722</v>
+        <v>0.1035668568360961</v>
       </c>
       <c r="E17">
-        <v>0.06441641196152048</v>
+        <v>0.134314818199222</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5153373283033602</v>
+        <v>0.795147784158118</v>
       </c>
       <c r="H17">
-        <v>0.3831705681699589</v>
+        <v>0.8682073908703103</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.204636545410864</v>
+        <v>0.3855483089936627</v>
       </c>
       <c r="L17">
-        <v>0.1976965752242421</v>
+        <v>0.2003514444549239</v>
       </c>
       <c r="M17">
-        <v>0.3036550514192342</v>
+        <v>0.1806088150914462</v>
       </c>
       <c r="N17">
-        <v>0.7852083765732747</v>
+        <v>1.873170422635589</v>
       </c>
       <c r="O17">
-        <v>1.843257888132655</v>
+        <v>3.343109209303009</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.413921757596341</v>
+        <v>0.6593117130632606</v>
       </c>
       <c r="C18">
-        <v>0.1398055948095802</v>
+        <v>0.2207829179970062</v>
       </c>
       <c r="D18">
-        <v>0.2792349921489716</v>
+        <v>0.1015357772411818</v>
       </c>
       <c r="E18">
-        <v>0.06404362156768784</v>
+        <v>0.134381405027197</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5099064042163377</v>
+        <v>0.795022054157414</v>
       </c>
       <c r="H18">
-        <v>0.3820069518546489</v>
+        <v>0.8689910438820476</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.174884445224734</v>
+        <v>0.3767102974831289</v>
       </c>
       <c r="L18">
-        <v>0.193681728450855</v>
+        <v>0.1995057300958791</v>
       </c>
       <c r="M18">
-        <v>0.296274411223358</v>
+        <v>0.1786839261923774</v>
       </c>
       <c r="N18">
-        <v>0.7951002095293536</v>
+        <v>1.877386415910928</v>
       </c>
       <c r="O18">
-        <v>1.829221956470349</v>
+        <v>3.34442295829075</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.401665669004416</v>
+        <v>0.6559192801278755</v>
       </c>
       <c r="C19">
-        <v>0.1397169558329239</v>
+        <v>0.2207578387622533</v>
       </c>
       <c r="D19">
-        <v>0.2767551767327916</v>
+        <v>0.1008486546056844</v>
       </c>
       <c r="E19">
-        <v>0.06391900194816102</v>
+        <v>0.1344047975688625</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5080873455659543</v>
+        <v>0.7949868231420254</v>
       </c>
       <c r="H19">
-        <v>0.3816242991576217</v>
+        <v>0.8692619089876672</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.1648166024749</v>
+        <v>0.3737177329073802</v>
       </c>
       <c r="L19">
-        <v>0.1923261001438021</v>
+        <v>0.1992208934886435</v>
       </c>
       <c r="M19">
-        <v>0.2937788985656553</v>
+        <v>0.1780332934958437</v>
       </c>
       <c r="N19">
-        <v>0.7984708880527958</v>
+        <v>1.878823581383099</v>
       </c>
       <c r="O19">
-        <v>1.824535076922331</v>
+        <v>3.344894754936178</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.456866891070064</v>
+        <v>0.6711973401545777</v>
       </c>
       <c r="C20">
-        <v>0.1401178497897888</v>
+        <v>0.2208715430319828</v>
       </c>
       <c r="D20">
-        <v>0.2879311605963721</v>
+        <v>0.1039430325822224</v>
       </c>
       <c r="E20">
-        <v>0.06448617293982473</v>
+        <v>0.1343028968311781</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5163519530265859</v>
+        <v>0.7951745398576548</v>
       </c>
       <c r="H20">
-        <v>0.3833913512059723</v>
+        <v>0.8680649821757953</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.210145787323057</v>
+        <v>0.3871839441381724</v>
       </c>
       <c r="L20">
-        <v>0.1984414267250827</v>
+        <v>0.2005086828461913</v>
       </c>
       <c r="M20">
-        <v>0.3050227064784252</v>
+        <v>0.1809655911106347</v>
       </c>
       <c r="N20">
-        <v>0.7833878778354846</v>
+        <v>1.872394745832252</v>
       </c>
       <c r="O20">
-        <v>1.845887006889939</v>
+        <v>3.342878879678409</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.643236522421319</v>
+        <v>0.7227320896528227</v>
       </c>
       <c r="C21">
-        <v>0.1415005416327659</v>
+        <v>0.2212682618925896</v>
       </c>
       <c r="D21">
-        <v>0.325791896773211</v>
+        <v>0.1143788926409286</v>
       </c>
       <c r="E21">
-        <v>0.06650651970247878</v>
+        <v>0.134019382984377</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5455544223015636</v>
+        <v>0.7963157125446401</v>
       </c>
       <c r="H21">
-        <v>0.3901430360072169</v>
+        <v>0.864428059969498</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.362895503855412</v>
+        <v>0.4324148738096483</v>
       </c>
       <c r="L21">
-        <v>0.219261045886924</v>
+        <v>0.2049400504979815</v>
       </c>
       <c r="M21">
-        <v>0.3430572060939667</v>
+        <v>0.1908937678223097</v>
       </c>
       <c r="N21">
-        <v>0.7342402390261125</v>
+        <v>1.851469801397039</v>
       </c>
       <c r="O21">
-        <v>1.922362279363398</v>
+        <v>3.337982070988147</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.765800335848866</v>
+        <v>0.7565606155254727</v>
       </c>
       <c r="C22">
-        <v>0.1424316068406242</v>
+        <v>0.221538369400875</v>
       </c>
       <c r="D22">
-        <v>0.3507948906576956</v>
+        <v>0.1212282878852733</v>
       </c>
       <c r="E22">
-        <v>0.06791654679059889</v>
+        <v>0.1338778532129119</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5657824100919981</v>
+        <v>0.7974419161679691</v>
       </c>
       <c r="H22">
-        <v>0.3951953490633002</v>
+        <v>0.8623373375800014</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.463126363647291</v>
+        <v>0.4619631430146569</v>
       </c>
       <c r="L22">
-        <v>0.2330877916951266</v>
+        <v>0.2079137741734485</v>
       </c>
       <c r="M22">
-        <v>0.3681273893109136</v>
+        <v>0.1974384154594446</v>
       </c>
       <c r="N22">
-        <v>0.7033023542426191</v>
+        <v>1.838297403991625</v>
       </c>
       <c r="O22">
-        <v>1.976096541235108</v>
+        <v>3.336179102118138</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.700310232173962</v>
+        <v>0.7384924077245785</v>
       </c>
       <c r="C23">
-        <v>0.1419321221472032</v>
+        <v>0.2213932246886898</v>
       </c>
       <c r="D23">
-        <v>0.3374248485454245</v>
+        <v>0.1175700026710871</v>
       </c>
       <c r="E23">
-        <v>0.06715551776694895</v>
+        <v>0.1339493927638244</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5548769515114742</v>
+        <v>0.7968060403795363</v>
       </c>
       <c r="H23">
-        <v>0.3924381430893646</v>
+        <v>0.8634270336945349</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.409590349532635</v>
+        <v>0.4461940069213028</v>
       </c>
       <c r="L23">
-        <v>0.225686981948229</v>
+        <v>0.2063195681384968</v>
       </c>
       <c r="M23">
-        <v>0.3547261279653355</v>
+        <v>0.1939403324338613</v>
       </c>
       <c r="N23">
-        <v>0.7197033841301126</v>
+        <v>1.845281703015926</v>
       </c>
       <c r="O23">
-        <v>1.947059294880887</v>
+        <v>3.337013585975825</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.453832332465083</v>
+        <v>0.6703575714404053</v>
       </c>
       <c r="C24">
-        <v>0.1400957019774864</v>
+        <v>0.2208652433775242</v>
       </c>
       <c r="D24">
-        <v>0.2873163258510374</v>
+        <v>0.1037729561520848</v>
       </c>
       <c r="E24">
-        <v>0.06445460514734158</v>
+        <v>0.134308271036474</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.51589288424546</v>
+        <v>0.7951623107479833</v>
       </c>
       <c r="H24">
-        <v>0.3832913286449156</v>
+        <v>0.8681292637659794</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.207654991878911</v>
+        <v>0.3864444891854646</v>
       </c>
       <c r="L24">
-        <v>0.1981046159628619</v>
+        <v>0.2004375692636415</v>
       </c>
       <c r="M24">
-        <v>0.3044043357359669</v>
+        <v>0.1808042754781241</v>
       </c>
       <c r="N24">
-        <v>0.7842105183236887</v>
+        <v>1.872745247470395</v>
       </c>
       <c r="O24">
-        <v>1.844697196140942</v>
+        <v>3.342982520777497</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.190667901200982</v>
+        <v>0.5975184035944494</v>
       </c>
       <c r="C25">
-        <v>0.1382277025345218</v>
+        <v>0.2203429886685626</v>
       </c>
       <c r="D25">
-        <v>0.2342057348359816</v>
+        <v>0.08901641402144378</v>
       </c>
       <c r="E25">
-        <v>0.06189992055623961</v>
+        <v>0.134883950675535</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4782829261319534</v>
+        <v>0.7950228716691328</v>
       </c>
       <c r="H25">
-        <v>0.3759654051712005</v>
+        <v>0.8744329539309348</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9911425003774639</v>
+        <v>0.3219564700871445</v>
       </c>
       <c r="L25">
-        <v>0.1691922601354179</v>
+        <v>0.1944282793781795</v>
       </c>
       <c r="M25">
-        <v>0.2509030708170243</v>
+        <v>0.1668797130906405</v>
       </c>
       <c r="N25">
-        <v>0.8585972030535931</v>
+        <v>1.904529086234155</v>
       </c>
       <c r="O25">
-        <v>1.748980542476687</v>
+        <v>3.355426982095111</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5444614721754988</v>
+        <v>0.9986054015265324</v>
       </c>
       <c r="C2">
-        <v>0.2199998318697993</v>
+        <v>0.1369443398321408</v>
       </c>
       <c r="D2">
-        <v>0.07825835179046692</v>
+        <v>0.1957233257353437</v>
       </c>
       <c r="E2">
-        <v>0.1354707382770037</v>
+        <v>0.06029996135678672</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7963246162988327</v>
+        <v>0.4539270855694468</v>
       </c>
       <c r="H2">
-        <v>0.8801369325400543</v>
+        <v>0.3725434142824895</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2744477690766303</v>
+        <v>0.832395872216523</v>
       </c>
       <c r="L2">
-        <v>0.1902934636307378</v>
+        <v>0.1485140998214831</v>
       </c>
       <c r="M2">
-        <v>0.1568398313437918</v>
+        <v>0.2120349474407206</v>
       </c>
       <c r="N2">
-        <v>1.929792603485881</v>
+        <v>0.9172312437409422</v>
       </c>
       <c r="O2">
-        <v>3.369760866746361</v>
+        <v>1.689675091553084</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5088688634830305</v>
+        <v>0.8692231927774969</v>
       </c>
       <c r="C3">
-        <v>0.2197934695591854</v>
+        <v>0.1361298084744078</v>
       </c>
       <c r="D3">
-        <v>0.07103394885483283</v>
+        <v>0.1699463325601016</v>
       </c>
       <c r="E3">
-        <v>0.1359704241426751</v>
+        <v>0.05937822378142421</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7980827652367921</v>
+        <v>0.4392794281017203</v>
       </c>
       <c r="H3">
-        <v>0.8846671997178461</v>
+        <v>0.3713564947833419</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2422383370241619</v>
+        <v>0.7250236418376943</v>
       </c>
       <c r="L3">
-        <v>0.1876728200020494</v>
+        <v>0.1348290526627025</v>
       </c>
       <c r="M3">
-        <v>0.1501696946828055</v>
+        <v>0.1859543752593744</v>
       </c>
       <c r="N3">
-        <v>1.948076651629993</v>
+        <v>0.9592534936160186</v>
       </c>
       <c r="O3">
-        <v>3.382704102399714</v>
+        <v>1.655773882326429</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4871974121235212</v>
+        <v>0.7900813469221646</v>
       </c>
       <c r="C4">
-        <v>0.2196798228123953</v>
+        <v>0.1356562854996852</v>
       </c>
       <c r="D4">
-        <v>0.0666308899424024</v>
+        <v>0.1542423036916603</v>
       </c>
       <c r="E4">
-        <v>0.1363276894668459</v>
+        <v>0.05888851061881795</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7995943919714463</v>
+        <v>0.4311337540435147</v>
       </c>
       <c r="H4">
-        <v>0.8877772601946958</v>
+        <v>0.3711559654207264</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2224574114253528</v>
+        <v>0.6591390027339941</v>
       </c>
       <c r="L4">
-        <v>0.1861536171497136</v>
+        <v>0.1265726831132241</v>
       </c>
       <c r="M4">
-        <v>0.1461408468812451</v>
+        <v>0.1700491761046869</v>
       </c>
       <c r="N4">
-        <v>1.959877133482028</v>
+        <v>0.9861437238989712</v>
       </c>
       <c r="O4">
-        <v>3.392245412146607</v>
+        <v>1.637852323553361</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4784126276987877</v>
+        <v>0.7578941997861648</v>
       </c>
       <c r="C5">
-        <v>0.2196368180707431</v>
+        <v>0.1354699299220528</v>
       </c>
       <c r="D5">
-        <v>0.06484487948836204</v>
+        <v>0.1478701403531488</v>
       </c>
       <c r="E5">
-        <v>0.1364859881171157</v>
+        <v>0.05870756463660776</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8003190875331541</v>
+        <v>0.428017932913562</v>
       </c>
       <c r="H5">
-        <v>0.8891273291805106</v>
+        <v>0.3712028290697518</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2143959096138985</v>
+        <v>0.6322928577584292</v>
       </c>
       <c r="L5">
-        <v>0.1855572014470255</v>
+        <v>0.1232427562393141</v>
       </c>
       <c r="M5">
-        <v>0.1445159388752764</v>
+        <v>0.1635921939548552</v>
       </c>
       <c r="N5">
-        <v>1.964830296744615</v>
+        <v>0.9973697523656035</v>
       </c>
       <c r="O5">
-        <v>3.396534706336254</v>
+        <v>1.631247490046491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4769567476513146</v>
+        <v>0.7525530773035882</v>
       </c>
       <c r="C6">
-        <v>0.2196298775952386</v>
+        <v>0.1354393826574416</v>
       </c>
       <c r="D6">
-        <v>0.06454881445300487</v>
+        <v>0.1468135971502136</v>
       </c>
       <c r="E6">
-        <v>0.1365130418098364</v>
+        <v>0.05867862727999906</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8004459886859294</v>
+        <v>0.4275125767982644</v>
       </c>
       <c r="H6">
-        <v>0.8893565045911629</v>
+        <v>0.3712182560932504</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2130572793357572</v>
+        <v>0.6278349862912762</v>
       </c>
       <c r="L6">
-        <v>0.1854595384529603</v>
+        <v>0.1226918529984005</v>
       </c>
       <c r="M6">
-        <v>0.1442471472561628</v>
+        <v>0.1625214201973684</v>
       </c>
       <c r="N6">
-        <v>1.965661486411041</v>
+        <v>0.9992498545793929</v>
       </c>
       <c r="O6">
-        <v>3.397271176098883</v>
+        <v>1.63019210756859</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4870787483405934</v>
+        <v>0.7896470162371827</v>
       </c>
       <c r="C7">
-        <v>0.2196792294127334</v>
+        <v>0.1356537455854898</v>
       </c>
       <c r="D7">
-        <v>0.06660676964121137</v>
+        <v>0.1541562603638482</v>
       </c>
       <c r="E7">
-        <v>0.136329772845011</v>
+        <v>0.05888599565804675</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7996037253177875</v>
+        <v>0.4310909210197167</v>
       </c>
       <c r="H7">
-        <v>0.8877951327383755</v>
+        <v>0.3711560822954638</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2223486930916607</v>
+        <v>0.6587769472099012</v>
       </c>
       <c r="L7">
-        <v>0.1861454817883086</v>
+        <v>0.1265276372251662</v>
       </c>
       <c r="M7">
-        <v>0.1461188642942837</v>
+        <v>0.1699619992436432</v>
       </c>
       <c r="N7">
-        <v>1.959943348976077</v>
+        <v>0.9862940440247172</v>
       </c>
       <c r="O7">
-        <v>3.392301634524287</v>
+        <v>1.637760458705628</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5321516017701242</v>
+        <v>0.9539251605557979</v>
       </c>
       <c r="C8">
-        <v>0.2199259810867886</v>
+        <v>0.1366579170517923</v>
       </c>
       <c r="D8">
-        <v>0.07576059887624353</v>
+        <v>0.1868076295236563</v>
       </c>
       <c r="E8">
-        <v>0.1356325711650452</v>
+        <v>0.0599659820130416</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7968411604516348</v>
+        <v>0.4486946195659982</v>
       </c>
       <c r="H8">
-        <v>0.8816308570558817</v>
+        <v>0.3720219077475804</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2633430856475911</v>
+        <v>0.7953599967826506</v>
       </c>
       <c r="L8">
-        <v>0.1893712512706145</v>
+        <v>0.1437637840233847</v>
       </c>
       <c r="M8">
-        <v>0.1545262074526015</v>
+        <v>0.2030181764850205</v>
       </c>
       <c r="N8">
-        <v>1.935977830978549</v>
+        <v>0.9314911504099381</v>
       </c>
       <c r="O8">
-        <v>3.373893000694778</v>
+        <v>1.677367231362609</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6219659941642988</v>
+        <v>1.279011010724503</v>
       </c>
       <c r="C9">
-        <v>0.220512533938404</v>
+        <v>0.1388423294912968</v>
       </c>
       <c r="D9">
-        <v>0.09397048236958483</v>
+        <v>0.2519875077765903</v>
       </c>
       <c r="E9">
-        <v>0.1346647750037953</v>
+        <v>0.06271504644536741</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7948516560993824</v>
+        <v>0.4904026806674437</v>
       </c>
       <c r="H9">
-        <v>0.8721447133119824</v>
+        <v>0.3781131732821166</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3436839891006684</v>
+        <v>1.063942023364831</v>
       </c>
       <c r="L9">
-        <v>0.1964076002063777</v>
+        <v>0.1788295005937925</v>
       </c>
       <c r="M9">
-        <v>0.1715373444769277</v>
+        <v>0.2688342816179414</v>
       </c>
       <c r="N9">
-        <v>1.893533753772555</v>
+        <v>0.8329224500324059</v>
       </c>
       <c r="O9">
-        <v>3.350432183885744</v>
+        <v>1.779393382330738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6887999268325871</v>
+        <v>1.520489025211106</v>
       </c>
       <c r="C10">
-        <v>0.2210048650057246</v>
+        <v>0.1405850112123375</v>
       </c>
       <c r="D10">
-        <v>0.1075078553106152</v>
+        <v>0.3008338917022115</v>
       </c>
       <c r="E10">
-        <v>0.1341960572877277</v>
+        <v>0.0651581185712562</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7954798751518268</v>
+        <v>0.5261007088817138</v>
       </c>
       <c r="H10">
-        <v>0.8667562024485136</v>
+        <v>0.3855635228903509</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4026652791149559</v>
+        <v>1.262339669009037</v>
       </c>
       <c r="L10">
-        <v>0.2020077526613875</v>
+        <v>0.2055195019624705</v>
       </c>
       <c r="M10">
-        <v>0.1843505524163618</v>
+        <v>0.3179943856549983</v>
       </c>
       <c r="N10">
-        <v>1.86512116343078</v>
+        <v>0.7663102131044495</v>
       </c>
       <c r="O10">
-        <v>3.340890019656854</v>
+        <v>1.871251250927543</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7193840373687408</v>
+        <v>1.631117599879673</v>
       </c>
       <c r="C11">
-        <v>0.2212419214583932</v>
+        <v>0.1414093646405092</v>
       </c>
       <c r="D11">
-        <v>0.113700970676831</v>
+        <v>0.3233240642308601</v>
       </c>
       <c r="E11">
-        <v>0.134035201398973</v>
+        <v>0.06637046809471414</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7962195941144898</v>
+        <v>0.5435971142434397</v>
       </c>
       <c r="H11">
-        <v>0.86464703670174</v>
+        <v>0.3896689445712695</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4294846632501219</v>
+        <v>1.352975598222713</v>
       </c>
       <c r="L11">
-        <v>0.2046483753004793</v>
+        <v>0.2178994961995926</v>
       </c>
       <c r="M11">
-        <v>0.1902471572144222</v>
+        <v>0.3405806890548604</v>
       </c>
       <c r="N11">
-        <v>1.852796378929714</v>
+        <v>0.7373569091978691</v>
       </c>
       <c r="O11">
-        <v>3.33821791053029</v>
+        <v>1.917192792542863</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7309909493312432</v>
+        <v>1.673139217618683</v>
       </c>
       <c r="C12">
-        <v>0.2213335492330089</v>
+        <v>0.1417262164443542</v>
       </c>
       <c r="D12">
-        <v>0.1160511408808134</v>
+        <v>0.3318845557186734</v>
       </c>
       <c r="E12">
-        <v>0.1339817984863814</v>
+        <v>0.0668448647299833</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7965649702461661</v>
+        <v>0.5504174038799761</v>
       </c>
       <c r="H12">
-        <v>0.8638974520476097</v>
+        <v>0.3913327816579937</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4396384327006331</v>
+        <v>1.387365006356646</v>
       </c>
       <c r="L12">
-        <v>0.2056616354539216</v>
+        <v>0.2226249861300147</v>
       </c>
       <c r="M12">
-        <v>0.1924896932610096</v>
+        <v>0.3491697262624953</v>
       </c>
       <c r="N12">
-        <v>1.848215589612973</v>
+        <v>0.7265951481491433</v>
       </c>
       <c r="O12">
-        <v>3.337445795022887</v>
+        <v>1.935230030297788</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7284900751683097</v>
+        <v>1.664083091782544</v>
       </c>
       <c r="C13">
-        <v>0.221313733211197</v>
+        <v>0.1416577658551361</v>
       </c>
       <c r="D13">
-        <v>0.1155447693007972</v>
+        <v>0.3300388602416291</v>
       </c>
       <c r="E13">
-        <v>0.1339929660879982</v>
+        <v>0.066742001193834</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7964876850826812</v>
+        <v>0.5489396370104345</v>
       </c>
       <c r="H13">
-        <v>0.8640567056105368</v>
+        <v>0.3909694845063143</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.437451740261821</v>
+        <v>1.379955421805022</v>
       </c>
       <c r="L13">
-        <v>0.2054428207680701</v>
+        <v>0.221605549262577</v>
       </c>
       <c r="M13">
-        <v>0.1920062972540535</v>
+        <v>0.3473182514441433</v>
       </c>
       <c r="N13">
-        <v>1.849198304181971</v>
+        <v>0.7289037549457511</v>
       </c>
       <c r="O13">
-        <v>3.337601423942971</v>
+        <v>1.931316207124894</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7203384402556878</v>
+        <v>1.634572057552077</v>
       </c>
       <c r="C14">
-        <v>0.2212494225933384</v>
+        <v>0.1414353374250936</v>
       </c>
       <c r="D14">
-        <v>0.113894221219752</v>
+        <v>0.3240274294258541</v>
       </c>
       <c r="E14">
-        <v>0.1340306575203343</v>
+        <v>0.06640918557451414</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.79624670058638</v>
+        <v>0.5441542364934833</v>
       </c>
       <c r="H14">
-        <v>0.8645843841402723</v>
+        <v>0.38980360384123</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4303200658887931</v>
+        <v>1.355803407915573</v>
       </c>
       <c r="L14">
-        <v>0.204731470409925</v>
+        <v>0.2182874957130849</v>
       </c>
       <c r="M14">
-        <v>0.1904314599642021</v>
+        <v>0.3412865670247456</v>
       </c>
       <c r="N14">
-        <v>1.852417784122765</v>
+        <v>0.7364674306131649</v>
       </c>
       <c r="O14">
-        <v>3.338149584228916</v>
+        <v>1.918663642533289</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7153486132965554</v>
+        <v>1.616513016399892</v>
       </c>
       <c r="C15">
-        <v>0.2212102719808229</v>
+        <v>0.1412997084631229</v>
       </c>
       <c r="D15">
-        <v>0.1128838589498287</v>
+        <v>0.3203511370548995</v>
       </c>
       <c r="E15">
-        <v>0.1340547219911699</v>
+        <v>0.06620734378506654</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7961075890193996</v>
+        <v>0.541248837469098</v>
       </c>
       <c r="H15">
-        <v>0.8649139956983305</v>
+        <v>0.3891038809499605</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.425951414795918</v>
+        <v>1.341018780192968</v>
       </c>
       <c r="L15">
-        <v>0.204297479471478</v>
+        <v>0.2162600666253525</v>
       </c>
       <c r="M15">
-        <v>0.1894680755230453</v>
+        <v>0.3375968101902487</v>
       </c>
       <c r="N15">
-        <v>1.85440105321503</v>
+        <v>0.7411269899317618</v>
       </c>
       <c r="O15">
-        <v>3.338516565412874</v>
+        <v>1.910998264978701</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6868047696877113</v>
+        <v>1.513276287145544</v>
       </c>
       <c r="C16">
-        <v>0.220989634289765</v>
+        <v>0.1405317855592756</v>
       </c>
       <c r="D16">
-        <v>0.1071038189327425</v>
+        <v>0.2993699677785457</v>
       </c>
       <c r="E16">
-        <v>0.1342076215891819</v>
+        <v>0.06508098679497643</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7954406658998892</v>
+        <v>0.524983751943239</v>
       </c>
       <c r="H16">
-        <v>0.8669009181797662</v>
+        <v>0.3853101580172051</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4009122955284568</v>
+        <v>1.256425158321662</v>
       </c>
       <c r="L16">
-        <v>0.2018370487353565</v>
+        <v>0.2047155056251313</v>
       </c>
       <c r="M16">
-        <v>0.1839665487428661</v>
+        <v>0.3165231442314393</v>
       </c>
       <c r="N16">
-        <v>1.86593869759607</v>
+        <v>0.7682302174300357</v>
       </c>
       <c r="O16">
-        <v>3.341098209217279</v>
+        <v>1.868336059203017</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6693399421750428</v>
+        <v>1.450155132578686</v>
       </c>
       <c r="C17">
-        <v>0.2208576170930172</v>
+        <v>0.1400688806157007</v>
       </c>
       <c r="D17">
-        <v>0.1035668568360961</v>
+        <v>0.2865713564491017</v>
       </c>
       <c r="E17">
-        <v>0.134314818199222</v>
+        <v>0.06441641196150805</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.795147784158118</v>
+        <v>0.5153373283033318</v>
       </c>
       <c r="H17">
-        <v>0.8682073908703103</v>
+        <v>0.3831705681700726</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3855483089936627</v>
+        <v>1.204636545410807</v>
       </c>
       <c r="L17">
-        <v>0.2003514444549239</v>
+        <v>0.1976965752242847</v>
       </c>
       <c r="M17">
-        <v>0.1806088150914462</v>
+        <v>0.3036550514192271</v>
       </c>
       <c r="N17">
-        <v>1.873170422635589</v>
+        <v>0.785208376573264</v>
       </c>
       <c r="O17">
-        <v>3.343109209303009</v>
+        <v>1.843257888132541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6593117130632606</v>
+        <v>1.413921757596313</v>
       </c>
       <c r="C18">
-        <v>0.2207829179970062</v>
+        <v>0.1398055948094736</v>
       </c>
       <c r="D18">
-        <v>0.1015357772411818</v>
+        <v>0.2792349921489716</v>
       </c>
       <c r="E18">
-        <v>0.134381405027197</v>
+        <v>0.06404362156768961</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.795022054157414</v>
+        <v>0.5099064042163519</v>
       </c>
       <c r="H18">
-        <v>0.8689910438820476</v>
+        <v>0.3820069518546632</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3767102974831289</v>
+        <v>1.174884445224706</v>
       </c>
       <c r="L18">
-        <v>0.1995057300958791</v>
+        <v>0.1936817284507981</v>
       </c>
       <c r="M18">
-        <v>0.1786839261923774</v>
+        <v>0.2962744112233651</v>
       </c>
       <c r="N18">
-        <v>1.877386415910928</v>
+        <v>0.7951002095293305</v>
       </c>
       <c r="O18">
-        <v>3.34442295829075</v>
+        <v>1.829221956470292</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6559192801278755</v>
+        <v>1.401665669004558</v>
       </c>
       <c r="C19">
-        <v>0.2207578387622533</v>
+        <v>0.1397169558334923</v>
       </c>
       <c r="D19">
-        <v>0.1008486546056844</v>
+        <v>0.2767551767330474</v>
       </c>
       <c r="E19">
-        <v>0.1344047975688625</v>
+        <v>0.0639190019481557</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7949868231420254</v>
+        <v>0.50808734556594</v>
       </c>
       <c r="H19">
-        <v>0.8692619089876672</v>
+        <v>0.3816242991575081</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3737177329073802</v>
+        <v>1.1648166024749</v>
       </c>
       <c r="L19">
-        <v>0.1992208934886435</v>
+        <v>0.1923261001437879</v>
       </c>
       <c r="M19">
-        <v>0.1780332934958437</v>
+        <v>0.2937788985656269</v>
       </c>
       <c r="N19">
-        <v>1.878823581383099</v>
+        <v>0.7984708880528002</v>
       </c>
       <c r="O19">
-        <v>3.344894754936178</v>
+        <v>1.824535076922331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6711973401545777</v>
+        <v>1.456866891070092</v>
       </c>
       <c r="C20">
-        <v>0.2208715430319828</v>
+        <v>0.1401178497900233</v>
       </c>
       <c r="D20">
-        <v>0.1039430325822224</v>
+        <v>0.2879311605961732</v>
       </c>
       <c r="E20">
-        <v>0.1343028968311781</v>
+        <v>0.06448617293982473</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7951745398576548</v>
+        <v>0.5163519530265432</v>
       </c>
       <c r="H20">
-        <v>0.8680649821757953</v>
+        <v>0.3833913512059723</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3871839441381724</v>
+        <v>1.210145787323171</v>
       </c>
       <c r="L20">
-        <v>0.2005086828461913</v>
+        <v>0.1984414267252532</v>
       </c>
       <c r="M20">
-        <v>0.1809655911106347</v>
+        <v>0.3050227064784252</v>
       </c>
       <c r="N20">
-        <v>1.872394745832252</v>
+        <v>0.7833878778354775</v>
       </c>
       <c r="O20">
-        <v>3.342878879678409</v>
+        <v>1.845887006889939</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7227320896528227</v>
+        <v>1.643236522421319</v>
       </c>
       <c r="C21">
-        <v>0.2212682618925896</v>
+        <v>0.1415005416325457</v>
       </c>
       <c r="D21">
-        <v>0.1143788926409286</v>
+        <v>0.3257918967729836</v>
       </c>
       <c r="E21">
-        <v>0.134019382984377</v>
+        <v>0.06650651970247878</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7963157125446401</v>
+        <v>0.5455544223016204</v>
       </c>
       <c r="H21">
-        <v>0.864428059969498</v>
+        <v>0.3901430360072169</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4324148738096483</v>
+        <v>1.362895503855327</v>
       </c>
       <c r="L21">
-        <v>0.2049400504979815</v>
+        <v>0.219261045886924</v>
       </c>
       <c r="M21">
-        <v>0.1908937678223097</v>
+        <v>0.3430572060939667</v>
       </c>
       <c r="N21">
-        <v>1.851469801397039</v>
+        <v>0.7342402390261231</v>
       </c>
       <c r="O21">
-        <v>3.337982070988147</v>
+        <v>1.922362279363341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7565606155254727</v>
+        <v>1.765800335848866</v>
       </c>
       <c r="C22">
-        <v>0.221538369400875</v>
+        <v>0.1424316068405176</v>
       </c>
       <c r="D22">
-        <v>0.1212282878852733</v>
+        <v>0.3507948906576956</v>
       </c>
       <c r="E22">
-        <v>0.1338778532129119</v>
+        <v>0.06791654679058112</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7974419161679691</v>
+        <v>0.5657824100920124</v>
       </c>
       <c r="H22">
-        <v>0.8623373375800014</v>
+        <v>0.3951953490633144</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4619631430146569</v>
+        <v>1.463126363647319</v>
       </c>
       <c r="L22">
-        <v>0.2079137741734485</v>
+        <v>0.2330877916951835</v>
       </c>
       <c r="M22">
-        <v>0.1974384154594446</v>
+        <v>0.3681273893109136</v>
       </c>
       <c r="N22">
-        <v>1.838297403991625</v>
+        <v>0.7033023542426236</v>
       </c>
       <c r="O22">
-        <v>3.336179102118138</v>
+        <v>1.976096541235165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7384924077245785</v>
+        <v>1.700310232174076</v>
       </c>
       <c r="C23">
-        <v>0.2213932246886898</v>
+        <v>0.1419321221472032</v>
       </c>
       <c r="D23">
-        <v>0.1175700026710871</v>
+        <v>0.3374248485454814</v>
       </c>
       <c r="E23">
-        <v>0.1339493927638244</v>
+        <v>0.0671555177669525</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7968060403795363</v>
+        <v>0.5548769515114742</v>
       </c>
       <c r="H23">
-        <v>0.8634270336945349</v>
+        <v>0.3924381430893504</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4461940069213028</v>
+        <v>1.409590349532522</v>
       </c>
       <c r="L23">
-        <v>0.2063195681384968</v>
+        <v>0.2256869819483143</v>
       </c>
       <c r="M23">
-        <v>0.1939403324338613</v>
+        <v>0.3547261279653355</v>
       </c>
       <c r="N23">
-        <v>1.845281703015926</v>
+        <v>0.7197033841301019</v>
       </c>
       <c r="O23">
-        <v>3.337013585975825</v>
+        <v>1.947059294880802</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6703575714404053</v>
+        <v>1.453832332465083</v>
       </c>
       <c r="C24">
-        <v>0.2208652433775242</v>
+        <v>0.1400957019770246</v>
       </c>
       <c r="D24">
-        <v>0.1037729561520848</v>
+        <v>0.2873163258508669</v>
       </c>
       <c r="E24">
-        <v>0.134308271036474</v>
+        <v>0.06445460514735224</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7951623107479833</v>
+        <v>0.51589288424546</v>
       </c>
       <c r="H24">
-        <v>0.8681292637659794</v>
+        <v>0.3832913286449013</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3864444891854646</v>
+        <v>1.207654991878968</v>
       </c>
       <c r="L24">
-        <v>0.2004375692636415</v>
+        <v>0.1981046159630466</v>
       </c>
       <c r="M24">
-        <v>0.1808042754781241</v>
+        <v>0.3044043357359669</v>
       </c>
       <c r="N24">
-        <v>1.872745247470395</v>
+        <v>0.7842105183236887</v>
       </c>
       <c r="O24">
-        <v>3.342982520777497</v>
+        <v>1.844697196140942</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5975184035944494</v>
+        <v>1.190667901200953</v>
       </c>
       <c r="C25">
-        <v>0.2203429886685626</v>
+        <v>0.1382277025345289</v>
       </c>
       <c r="D25">
-        <v>0.08901641402144378</v>
+        <v>0.2342057348358679</v>
       </c>
       <c r="E25">
-        <v>0.134883950675535</v>
+        <v>0.0618999205562254</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.7950228716691328</v>
+        <v>0.4782829261319819</v>
       </c>
       <c r="H25">
-        <v>0.8744329539309348</v>
+        <v>0.3759654051712005</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3219564700871445</v>
+        <v>0.9911425003773786</v>
       </c>
       <c r="L25">
-        <v>0.1944282793781795</v>
+        <v>0.1691922601353824</v>
       </c>
       <c r="M25">
-        <v>0.1668797130906405</v>
+        <v>0.2509030708170279</v>
       </c>
       <c r="N25">
-        <v>1.904529086234155</v>
+        <v>0.8585972030535327</v>
       </c>
       <c r="O25">
-        <v>3.355426982095111</v>
+        <v>1.748980542476602</v>
       </c>
     </row>
   </sheetData>
